--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -40,18 +40,12 @@
     <t>angle(degs)</t>
   </si>
   <si>
-    <t>Voltage(p.u.)</t>
-  </si>
-  <si>
     <t>busname</t>
   </si>
   <si>
     <t>PD(MW)</t>
   </si>
   <si>
-    <t>QD(MVar)</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>pG(MW)</t>
   </si>
   <si>
-    <t>qG(MVar)</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
@@ -217,13 +208,7 @@
     <t>to_busname</t>
   </si>
   <si>
-    <t>pLto(MW)</t>
-  </si>
-  <si>
-    <t>pLfrom(MW)</t>
-  </si>
-  <si>
-    <t>loss(MW)</t>
+    <t>pL(MW)</t>
   </si>
   <si>
     <t>L1-12</t>
@@ -325,25 +310,7 @@
     <t>L33-2122</t>
   </si>
   <si>
-    <t>pLTto(MW)</t>
-  </si>
-  <si>
-    <t>pLTfrom(MW)</t>
-  </si>
-  <si>
-    <t>tap</t>
-  </si>
-  <si>
-    <t>T1-324</t>
-  </si>
-  <si>
-    <t>T2-911</t>
-  </si>
-  <si>
-    <t>T3-912</t>
-  </si>
-  <si>
-    <t>T4-1011</t>
+    <t>pLT(MW)</t>
   </si>
   <si>
     <t>T5-1012</t>
@@ -726,7 +693,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2895.787122910954</v>
+        <v>2850.000028477923</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -735,7 +702,7 @@
         <v>2850</v>
       </c>
       <c r="D2">
-        <v>44.13964642243646</v>
+        <v>-0.1983245448317679</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +712,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.913519446182286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.842282037614754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5.942740662784904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.1847358113704577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-0.7702899233993405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-3.68518280200185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-3.591253485429806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-5.215214534649427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.406380649032814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-1.027717385300845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-2.053360271639652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-2.900025332739733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.233253852155979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9.086601959106316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>8.61573263266593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>13.25453806671413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>14.68025277425835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7.505683625713609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8.607579215034679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>15.46527912515554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>21.68869858074195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>10.00067003674755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1.447305049522792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -756,274 +936,197 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-7.77793567787777</v>
-      </c>
-      <c r="C2">
-        <v>1.038807648977686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-7.80171056792365</v>
-      </c>
-      <c r="C3">
-        <v>1.038383470706164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-7.101987232997808</v>
-      </c>
-      <c r="C4">
-        <v>1.049999989670432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-10.50149593454762</v>
-      </c>
-      <c r="C5">
-        <v>1.026857116087429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-10.70352029581303</v>
-      </c>
-      <c r="C6">
-        <v>1.031094604896314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-13.22365524005589</v>
-      </c>
-      <c r="C7">
-        <v>1.030239701115351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="C15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>-13.69519011265718</v>
-      </c>
-      <c r="C8">
-        <v>1.024999990200066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="C16">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>-15.11234615667362</v>
-      </c>
-      <c r="C9">
-        <v>1.007594245234255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="C17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>-8.774524451095045</v>
-      </c>
-      <c r="C10">
-        <v>1.050000009801321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-10.54793548132182</v>
-      </c>
-      <c r="C11">
-        <v>1.05000001045482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-3.154281747946331</v>
-      </c>
-      <c r="C12">
-        <v>1.039305949384959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>-2.38208745707586</v>
-      </c>
-      <c r="C13">
-        <v>1.028392070605007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-1.128419795691027e-32</v>
-      </c>
-      <c r="C14">
-        <v>1.044341946183506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.2793287179881638</v>
-      </c>
-      <c r="C15">
-        <v>1.067432112228209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7.658142771401071</v>
-      </c>
-      <c r="C16">
-        <v>1.106169371467777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>7.076608368319635</v>
-      </c>
-      <c r="C17">
-        <v>1.100020214893762</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>10.87032567709837</v>
-      </c>
       <c r="C18">
-        <v>1.112681151483048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>12.0339559957548</v>
-      </c>
-      <c r="C19">
-        <v>1.117860862711963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>6.295166188434936</v>
-      </c>
-      <c r="C20">
-        <v>1.086942571693345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>7.326961365464917</v>
-      </c>
-      <c r="C21">
-        <v>1.084683641937689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>12.68617735864863</v>
-      </c>
-      <c r="C22">
-        <v>1.12029719131746</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>17.6064887014038</v>
-      </c>
-      <c r="C23">
-        <v>1.12731936720904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>8.554820000763161</v>
-      </c>
-      <c r="C24">
-        <v>1.086537866224446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2.425934949048139</v>
-      </c>
-      <c r="C25">
-        <v>1.058064218842712</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1031,9 +1134,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1044,306 +1147,35 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>108</v>
-      </c>
-      <c r="D2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>195</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>265</v>
-      </c>
-      <c r="D4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>194</v>
-      </c>
-      <c r="D5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>317</v>
-      </c>
-      <c r="D6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>333</v>
-      </c>
-      <c r="D8">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>181</v>
-      </c>
-      <c r="D9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>97</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>128</v>
-      </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>180</v>
-      </c>
-      <c r="D12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>74</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>71</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>136</v>
-      </c>
-      <c r="D15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>125</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>171</v>
-      </c>
-      <c r="D17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>175</v>
-      </c>
-      <c r="D18">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>-3.395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -1351,16 +1183,13 @@
       <c r="D3">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>-3.395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>76</v>
@@ -1368,16 +1197,13 @@
       <c r="D4">
         <v>76</v>
       </c>
-      <c r="E4">
-        <v>-3.395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>76</v>
@@ -1385,16 +1211,13 @@
       <c r="D5">
         <v>76</v>
       </c>
-      <c r="E5">
-        <v>-3.395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -1402,16 +1225,13 @@
       <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>-4.547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -1419,16 +1239,13 @@
       <c r="D7">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>-4.547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>76</v>
@@ -1436,16 +1253,13 @@
       <c r="D8">
         <v>76</v>
       </c>
-      <c r="E8">
-        <v>-4.547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>76</v>
@@ -1453,16 +1267,13 @@
       <c r="D9">
         <v>76</v>
       </c>
-      <c r="E9">
-        <v>-4.547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>57.054</v>
@@ -1470,16 +1281,13 @@
       <c r="D10">
         <v>57.054</v>
       </c>
-      <c r="E10">
-        <v>13.915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>57.054</v>
@@ -1487,16 +1295,13 @@
       <c r="D11">
         <v>57.054</v>
       </c>
-      <c r="E11">
-        <v>13.915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>57.054</v>
@@ -1504,84 +1309,69 @@
       <c r="D12">
         <v>57.054</v>
       </c>
-      <c r="E12">
-        <v>13.915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>76.279</v>
       </c>
       <c r="D13">
-        <v>138.067</v>
-      </c>
-      <c r="E13">
-        <v>15.013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>81.613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>76.279</v>
       </c>
       <c r="D14">
-        <v>76.279</v>
-      </c>
-      <c r="E14">
-        <v>15.013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>81.613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>76.279</v>
       </c>
       <c r="D15">
-        <v>76.279</v>
-      </c>
-      <c r="E15">
-        <v>15.013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>81.613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>62.542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>2.4</v>
@@ -1589,16 +1379,13 @@
       <c r="D17">
         <v>2.4</v>
       </c>
-      <c r="E17">
-        <v>28.176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>155</v>
@@ -1606,16 +1393,13 @@
       <c r="D18">
         <v>155</v>
       </c>
-      <c r="E18">
-        <v>28.176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>2.4</v>
@@ -1623,16 +1407,13 @@
       <c r="D19">
         <v>2.4</v>
       </c>
-      <c r="E19">
-        <v>28.176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>2.4</v>
@@ -1640,16 +1421,13 @@
       <c r="D20">
         <v>2.4</v>
       </c>
-      <c r="E20">
-        <v>28.176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>2.4</v>
@@ -1657,16 +1435,13 @@
       <c r="D21">
         <v>2.4</v>
       </c>
-      <c r="E21">
-        <v>28.176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>2.4</v>
@@ -1674,16 +1449,13 @@
       <c r="D22">
         <v>2.4</v>
       </c>
-      <c r="E22">
-        <v>28.176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>155</v>
@@ -1691,16 +1463,13 @@
       <c r="D23">
         <v>155</v>
       </c>
-      <c r="E23">
-        <v>92.962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>400</v>
@@ -1708,16 +1477,13 @@
       <c r="D24">
         <v>400</v>
       </c>
-      <c r="E24">
-        <v>72.776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>400</v>
@@ -1725,16 +1491,13 @@
       <c r="D25">
         <v>400</v>
       </c>
-      <c r="E25">
-        <v>20.986</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -1742,16 +1505,13 @@
       <c r="D26">
         <v>50</v>
       </c>
-      <c r="E26">
-        <v>-3.192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>50</v>
@@ -1759,16 +1519,13 @@
       <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27">
-        <v>-3.192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>50</v>
@@ -1776,16 +1533,13 @@
       <c r="D28">
         <v>50</v>
       </c>
-      <c r="E28">
-        <v>-3.192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -1793,16 +1547,13 @@
       <c r="D29">
         <v>50</v>
       </c>
-      <c r="E29">
-        <v>-3.192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>50</v>
@@ -1810,16 +1561,13 @@
       <c r="D30">
         <v>50</v>
       </c>
-      <c r="E30">
-        <v>-3.192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>50</v>
@@ -1827,16 +1575,13 @@
       <c r="D31">
         <v>50</v>
       </c>
-      <c r="E31">
-        <v>-3.192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>155</v>
@@ -1844,16 +1589,13 @@
       <c r="D32">
         <v>155</v>
       </c>
-      <c r="E32">
-        <v>20.692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>155</v>
@@ -1861,25 +1603,19 @@
       <c r="D33">
         <v>155</v>
       </c>
-      <c r="E33">
-        <v>20.692</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>350</v>
       </c>
       <c r="D34">
         <v>350</v>
-      </c>
-      <c r="E34">
-        <v>20.692</v>
       </c>
     </row>
   </sheetData>
@@ -1889,27 +1625,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1919,35 +1652,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>68</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1956,18 +1683,12 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>-3.683840152384797</v>
-      </c>
-      <c r="E2">
-        <v>3.684315579516857</v>
-      </c>
-      <c r="F2">
-        <v>0.0004754271320600578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8.944800935912594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1976,18 +1697,12 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>7.068138743778271</v>
-      </c>
-      <c r="E3">
-        <v>-7.03634722537041</v>
-      </c>
-      <c r="F3">
-        <v>0.03179151840786154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-25.03308901561743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1996,18 +1711,12 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>-62.53575853411228</v>
-      </c>
-      <c r="E4">
-        <v>63.35202980799256</v>
-      </c>
-      <c r="F4">
-        <v>0.8162712738802758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>76.08828700001897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2016,18 +1725,12 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>-39.19038155890494</v>
-      </c>
-      <c r="E5">
-        <v>39.66908447770682</v>
-      </c>
-      <c r="F5">
-        <v>0.4787029188018821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>36.60847014357783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2036,18 +1739,12 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-49.79682277844682</v>
-      </c>
-      <c r="E6">
-        <v>51.01475346383808</v>
-      </c>
-      <c r="F6">
-        <v>1.217930685391266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>59.33632982264236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2056,18 +1753,12 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>-25.24753538317664</v>
-      </c>
-      <c r="E7">
-        <v>25.43902740036727</v>
-      </c>
-      <c r="F7">
-        <v>0.1914920171906198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>51.86649224861002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -2076,18 +1767,12 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>35.16355823086911</v>
-      </c>
-      <c r="E8">
-        <v>-34.80961844109506</v>
-      </c>
-      <c r="F8">
-        <v>0.3539397897740437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-37.39153059512347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -2096,18 +1781,12 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>8.564413819956455</v>
-      </c>
-      <c r="E9">
-        <v>-8.464241465887712</v>
-      </c>
-      <c r="F9">
-        <v>0.1001723540687421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>5.088286291317681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -2116,18 +1795,12 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>87.194866806801</v>
-      </c>
-      <c r="E10">
-        <v>-86.2031772215532</v>
-      </c>
-      <c r="F10">
-        <v>0.9916895852478014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-76.66367153605893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -2136,18 +1809,12 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>-45.79254017560981</v>
-      </c>
-      <c r="E11">
-        <v>46.16200285448488</v>
-      </c>
-      <c r="F11">
-        <v>0.3694626788750655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>46.16199875085356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -2156,18 +1823,12 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>73.79113326649596</v>
-      </c>
-      <c r="E12">
-        <v>-71.62828935353548</v>
-      </c>
-      <c r="F12">
-        <v>2.162843912960477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-80.57052102325687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -2176,18 +1837,12 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>54.82854099461901</v>
-      </c>
-      <c r="E13">
-        <v>-53.57917047085472</v>
-      </c>
-      <c r="F13">
-        <v>1.249370523764293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-44.26748193459084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -2196,18 +1851,12 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>125.2707035995943</v>
-      </c>
-      <c r="E14">
-        <v>-124.3928746202807</v>
-      </c>
-      <c r="F14">
-        <v>0.8778289793135663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-75.28970056671652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -2216,18 +1865,12 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>166.0781757080281</v>
-      </c>
-      <c r="E15">
-        <v>-164.6269233847491</v>
-      </c>
-      <c r="F15">
-        <v>1.451252323279006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-137.2302337387136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>12</v>
@@ -2236,18 +1879,12 @@
         <v>13</v>
       </c>
       <c r="D16">
-        <v>96.92141277923383</v>
-      </c>
-      <c r="E16">
-        <v>-96.362385064908</v>
-      </c>
-      <c r="F16">
-        <v>0.5590277143258437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-106.3340135452783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -2256,18 +1893,12 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>226.8159554905837</v>
-      </c>
-      <c r="E17">
-        <v>-221.067596071356</v>
-      </c>
-      <c r="F17">
-        <v>5.748359419227755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>-233.0844823957967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -2276,18 +1907,12 @@
         <v>23</v>
       </c>
       <c r="D18">
-        <v>200.5119693432321</v>
-      </c>
-      <c r="E18">
-        <v>-196.5669648550223</v>
-      </c>
-      <c r="F18">
-        <v>3.945004488209758</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>-201.7856873373261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -2296,18 +1921,12 @@
         <v>16</v>
       </c>
       <c r="D19">
-        <v>365.7888854533948</v>
-      </c>
-      <c r="E19">
-        <v>-360.0781755221161</v>
-      </c>
-      <c r="F19">
-        <v>5.710709931278624</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-331.230235677415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -2316,18 +1935,12 @@
         <v>16</v>
       </c>
       <c r="D20">
-        <v>-75.09902761511105</v>
-      </c>
-      <c r="E20">
-        <v>75.21705495349848</v>
-      </c>
-      <c r="F20">
-        <v>0.1180273383874164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>47.50416238747246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -2336,18 +1949,12 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>223.3664753599495</v>
-      </c>
-      <c r="E21">
-        <v>-220.8531405910294</v>
-      </c>
-      <c r="F21">
-        <v>2.513334768920039</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-227.2018744272246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>15</v>
@@ -2356,18 +1963,12 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>223.3664753599495</v>
-      </c>
-      <c r="E22">
-        <v>-220.8531405910294</v>
-      </c>
-      <c r="F22">
-        <v>2.513334768920039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-227.2018744272246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>15</v>
@@ -2376,18 +1977,12 @@
         <v>24</v>
       </c>
       <c r="D23">
-        <v>-213.5367875889787</v>
-      </c>
-      <c r="E23">
-        <v>216.4892200766299</v>
-      </c>
-      <c r="F23">
-        <v>2.952432487651269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>256.8995830629287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -2396,18 +1991,12 @@
         <v>17</v>
       </c>
       <c r="D24">
-        <v>315.8004294803369</v>
-      </c>
-      <c r="E24">
-        <v>-313.1261535264696</v>
-      </c>
-      <c r="F24">
-        <v>2.674275953867333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-312.5962478129177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -2416,18 +2005,12 @@
         <v>19</v>
       </c>
       <c r="D25">
-        <v>-77.21877222948321</v>
-      </c>
-      <c r="E25">
-        <v>77.4362942150951</v>
-      </c>
-      <c r="F25">
-        <v>0.2175219856118904</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>83.87017328922683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B26">
         <v>17</v>
@@ -2436,18 +2019,12 @@
         <v>18</v>
       </c>
       <c r="D26">
-        <v>177.8811701132331</v>
-      </c>
-      <c r="E26">
-        <v>-177.4197663690658</v>
-      </c>
-      <c r="F26">
-        <v>0.4614037441673879</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-172.8014988941305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B27">
         <v>17</v>
@@ -2456,18 +2033,12 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>140.4807374250825</v>
-      </c>
-      <c r="E27">
-        <v>-138.3806631112711</v>
-      </c>
-      <c r="F27">
-        <v>2.100074313811362</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-139.7947489187871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B28">
         <v>18</v>
@@ -2476,18 +2047,12 @@
         <v>21</v>
       </c>
       <c r="D28">
-        <v>55.52201683678933</v>
-      </c>
-      <c r="E28">
-        <v>-55.44058703309155</v>
-      </c>
-      <c r="F28">
-        <v>0.08142980369778563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-52.90075111224819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B29">
         <v>18</v>
@@ -2496,18 +2061,12 @@
         <v>21</v>
       </c>
       <c r="D29">
-        <v>55.52201683678933</v>
-      </c>
-      <c r="E29">
-        <v>-55.44058703309155</v>
-      </c>
-      <c r="F29">
-        <v>0.08142980369778563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-52.90075111224819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>19</v>
@@ -2516,18 +2075,12 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <v>52.01456007186519</v>
-      </c>
-      <c r="E30">
-        <v>-51.8906138852584</v>
-      </c>
-      <c r="F30">
-        <v>0.1239461866067937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-48.56491425973724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B31">
         <v>19</v>
@@ -2536,18 +2089,12 @@
         <v>20</v>
       </c>
       <c r="D31">
-        <v>52.01456007186519</v>
-      </c>
-      <c r="E31">
-        <v>-51.8906138852584</v>
-      </c>
-      <c r="F31">
-        <v>0.1239461866067937</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-48.56491425973722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -2556,18 +2103,12 @@
         <v>23</v>
       </c>
       <c r="D32">
-        <v>116.3360343805209</v>
-      </c>
-      <c r="E32">
-        <v>-116.0145600718652</v>
-      </c>
-      <c r="F32">
-        <v>0.3214743086557004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-112.5649148990879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -2576,18 +2117,12 @@
         <v>23</v>
       </c>
       <c r="D33">
-        <v>116.3360343805209</v>
-      </c>
-      <c r="E33">
-        <v>-116.0145600718652</v>
-      </c>
-      <c r="F33">
-        <v>0.3214743086557004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-112.5649148990879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <v>21</v>
@@ -2596,13 +2131,7 @@
         <v>22</v>
       </c>
       <c r="D34">
-        <v>159.5192567683673</v>
-      </c>
-      <c r="E34">
-        <v>-157.7769883487678</v>
-      </c>
-      <c r="F34">
-        <v>1.74226841959948</v>
+        <v>-160.2052510806133</v>
       </c>
     </row>
   </sheetData>
@@ -2612,148 +2141,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>213.5367875889787</v>
-      </c>
-      <c r="E2">
-        <v>-212.5071661441455</v>
-      </c>
-      <c r="F2">
-        <v>1.02962144483314</v>
-      </c>
-      <c r="G2">
-        <v>1.035386449811086</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>124.4196919394943</v>
-      </c>
-      <c r="E3">
-        <v>-124.0742022239234</v>
-      </c>
-      <c r="F3">
-        <v>0.3454897155709125</v>
-      </c>
-      <c r="G3">
-        <v>1.030000008613156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>135.1280491409989</v>
-      </c>
-      <c r="E4">
-        <v>-134.632953890265</v>
-      </c>
-      <c r="F4">
-        <v>0.4950952507339013</v>
-      </c>
-      <c r="G4">
-        <v>1.075072844235665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>164.6001060655356</v>
-      </c>
-      <c r="E5">
-        <v>-164.0160378904827</v>
-      </c>
-      <c r="F5">
-        <v>0.5840681750529209</v>
-      </c>
-      <c r="G5">
-        <v>1.019999989927247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>182.301931995265</v>
-      </c>
-      <c r="E6">
-        <v>-181.5717837308938</v>
-      </c>
-      <c r="F6">
-        <v>0.7301482643712109</v>
-      </c>
-      <c r="G6">
-        <v>0.9999999901097758</v>
+        <v>-187.1483471902957</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Time Period</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>Power flow Fr(MW)</t>
-  </si>
-  <si>
-    <t>Scot</t>
-  </si>
-  <si>
-    <t>Eng</t>
   </si>
   <si>
     <t>Generator</t>
@@ -450,142 +444,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2500.000000000001</v>
+        <v>197</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2500</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2100.000000000001</v>
+        <v>209</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2100</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2300.000000000001</v>
+        <v>220</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2800.000000000001</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2950</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2900.000000000001</v>
+        <v>207</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3100</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2900.000000000001</v>
+        <v>202</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2900</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>3100.000000000001</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>3150.000000000001</v>
+        <v>342</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3150</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>3150.000000000001</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>3150.000000000003</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3150</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -620,342 +614,342 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2500.000000000001</v>
+        <v>197</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2500</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2500.000000000001</v>
+        <v>197</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2500</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2100.000000000001</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2100</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2100.000000000001</v>
+        <v>209</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2100</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2300.000000000001</v>
+        <v>220</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2300.000000000001</v>
+        <v>220</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2800.000000000001</v>
+        <v>222</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2950</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2800.000000000001</v>
+        <v>222</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2950</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2900.000000000001</v>
+        <v>207</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3100</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2900.000000000001</v>
+        <v>207</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3100</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2900.000000000001</v>
+        <v>202</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2900</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2900.000000000001</v>
+        <v>202</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2900</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3100.000000000001</v>
+        <v>121</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>3100.000000000001</v>
+        <v>121</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>3150.000000000001</v>
+        <v>342</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3150</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>3150.000000000001</v>
+        <v>342</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3150</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3150.000000000001</v>
+        <v>122</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>3150.000000000001</v>
+        <v>122</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>3150.000000000003</v>
+        <v>119</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>3150.000000000003</v>
+        <v>119</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3150</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -990,172 +984,172 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>5000.000000000003</v>
+        <v>-97.00000000000001</v>
       </c>
       <c r="E2">
-        <v>-5000.000000000003</v>
+        <v>97.00000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>5000.000000000003</v>
+        <v>112</v>
       </c>
       <c r="E3">
-        <v>-5000.000000000003</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>5000.000000000003</v>
+        <v>123</v>
       </c>
       <c r="E4">
-        <v>-5000.000000000003</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>5000.000000000003</v>
+        <v>125</v>
       </c>
       <c r="E5">
-        <v>-5000.000000000003</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>5000.000000000003</v>
+        <v>-97.00000000000001</v>
       </c>
       <c r="E6">
-        <v>-5000.000000000003</v>
+        <v>97.00000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5000.000000000003</v>
+        <v>-97.00000000000001</v>
       </c>
       <c r="E7">
-        <v>-5000.000000000003</v>
+        <v>97.00000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>5000.000000000003</v>
+        <v>23.99999999999998</v>
       </c>
       <c r="E8">
-        <v>-5000.000000000003</v>
+        <v>-23.99999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>5000.000000000003</v>
+        <v>245</v>
       </c>
       <c r="E9">
-        <v>-5000.000000000003</v>
+        <v>-245</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>5000.000000000003</v>
+        <v>24.99999999999998</v>
       </c>
       <c r="E10">
-        <v>-5000.000000000003</v>
+        <v>-24.99999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11">
-        <v>5000.000000000003</v>
+        <v>21.99999999999998</v>
       </c>
       <c r="E11">
-        <v>-5000.000000000003</v>
+        <v>-21.99999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1176,27 +1170,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1208,15 +1202,15 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1228,15 +1222,15 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1500.000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1248,35 +1242,35 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>500.0000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1600.000000000001</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1288,35 +1282,35 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>600.0000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1700.000000000001</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1328,35 +1322,35 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1800.000000000001</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1368,35 +1362,35 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1900.000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1408,35 +1402,35 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>900.0000000000006</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2000.000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1448,35 +1442,35 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2100.000000000001</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1488,35 +1482,35 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>950.0000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2200.000000000001</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1528,35 +1522,35 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>850.0000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2300.000000000001</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1568,15 +1562,15 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>750.0000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1588,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2400.000000000002</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -463,13 +463,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1900</v>
       </c>
       <c r="C2">
-        <v>1100</v>
+        <v>4100</v>
       </c>
       <c r="D2">
         <v>3000</v>
@@ -477,13 +477,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2100.000000000001</v>
+        <v>2100</v>
       </c>
       <c r="C3">
-        <v>850</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="D3">
         <v>2700</v>
@@ -491,13 +491,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2300.000000000001</v>
+        <v>2300</v>
       </c>
       <c r="C4">
-        <v>987.8086419753089</v>
+        <v>450</v>
       </c>
       <c r="D4">
         <v>3000</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2100</v>
       </c>
       <c r="C5">
-        <v>1787.808641975309</v>
+        <v>750</v>
       </c>
       <c r="D5">
         <v>3350</v>
@@ -519,13 +519,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2300</v>
       </c>
       <c r="C6">
-        <v>2087.808641975309</v>
+        <v>550</v>
       </c>
       <c r="D6">
         <v>3600</v>
@@ -533,13 +533,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2200</v>
       </c>
       <c r="C7">
-        <v>2037.808641975309</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>3200</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2450</v>
       </c>
       <c r="C8">
-        <v>850.0000000000002</v>
+        <v>1314.506172839506</v>
       </c>
       <c r="D8">
         <v>3550</v>
@@ -561,13 +561,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2770</v>
       </c>
       <c r="C9">
-        <v>550.0000000000002</v>
+        <v>1514.506172839506</v>
       </c>
       <c r="D9">
         <v>3820</v>
@@ -575,13 +575,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2750</v>
       </c>
       <c r="C10">
-        <v>200.0000000000002</v>
+        <v>700</v>
       </c>
       <c r="D10">
         <v>3700</v>
@@ -589,13 +589,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>2800.000000000001</v>
+        <v>2800</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D11">
         <v>3650</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1100</v>
+        <v>4100</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>850</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -684,13 +684,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2100.000000000001</v>
+        <v>2100</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>987.8086419753089</v>
+        <v>450</v>
       </c>
       <c r="E6">
         <v>600</v>
@@ -718,13 +718,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2300.000000000001</v>
+        <v>2300</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1787.808641975309</v>
+        <v>750</v>
       </c>
       <c r="E8">
         <v>1150</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2087.808641975309</v>
+        <v>550</v>
       </c>
       <c r="E10">
         <v>1200</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2037.808641975309</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>900</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>850.0000000000002</v>
+        <v>1314.506172839506</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>550.0000000000002</v>
+        <v>1514.506172839506</v>
       </c>
       <c r="E16">
         <v>950</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>200.0000000000002</v>
+        <v>700</v>
       </c>
       <c r="E18">
         <v>850</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E20">
         <v>750</v>
@@ -956,13 +956,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2800.000000000001</v>
+        <v>2800</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1266,19 +1266,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1295,18 +1295,18 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2100.000000000001</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1326,19 +1326,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1355,18 +1355,18 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2300.000000000001</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1386,19 +1386,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1415,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2100</v>
@@ -1426,19 +1426,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1446,19 +1446,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1475,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>2300</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1495,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1506,19 +1506,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>2200</v>
@@ -1546,19 +1546,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1566,19 +1566,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1595,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>2450</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1626,19 +1626,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -1655,10 +1655,10 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>2770</v>
@@ -1666,19 +1666,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1686,19 +1686,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1715,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>2750</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1746,19 +1746,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -1775,18 +1775,18 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2800.000000000001</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1839,16 +1839,16 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1856,16 +1856,16 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>250</v>
+        <v>333.3333333333334</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>225</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1873,16 +1873,16 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>287.8086419753087</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E4">
-        <v>259.0277777777778</v>
+        <v>-277.7777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1890,16 +1890,16 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>537.8086419753087</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E5">
-        <v>484.0277777777778</v>
+        <v>-555.5555555555555</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1907,16 +1907,16 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>787.8086419753087</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E6">
-        <v>709.0277777777778</v>
+        <v>-833.3333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1924,16 +1924,16 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1037.808641975309</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E7">
-        <v>934.0277777777778</v>
+        <v>-1111.111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1941,16 +1941,16 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>214.5061728395063</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-277.7777777777778</v>
+        <v>193.0555555555556</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1958,16 +1958,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>464.5061728395062</v>
       </c>
       <c r="D9">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-555.5555555555555</v>
+        <v>418.0555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1975,16 +1975,16 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E10">
-        <v>-833.3333333333334</v>
+        <v>-277.7777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1992,16 +1992,16 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>850.0000000000003</v>
+        <v>500</v>
       </c>
       <c r="E11">
-        <v>-944.4444444444448</v>
+        <v>-555.5555555555555</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="23">
   <si>
     <t>Time Period</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>PSH</t>
+  </si>
+  <si>
+    <t>PSH2</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
         <v>1900</v>
       </c>
       <c r="C2">
-        <v>4100</v>
+        <v>1100</v>
       </c>
       <c r="D2">
         <v>3000</v>
@@ -480,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2100</v>
+        <v>2100.000000000001</v>
       </c>
       <c r="C3">
-        <v>933.3333333333334</v>
+        <v>1600</v>
       </c>
       <c r="D3">
         <v>2700</v>
@@ -494,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2300</v>
+        <v>2300.000000000001</v>
       </c>
       <c r="C4">
-        <v>450</v>
+        <v>2598.148148148149</v>
       </c>
       <c r="D4">
         <v>3000</v>
@@ -511,7 +514,7 @@
         <v>2100</v>
       </c>
       <c r="C5">
-        <v>750</v>
+        <v>4148.148148148149</v>
       </c>
       <c r="D5">
         <v>3350</v>
@@ -525,7 +528,7 @@
         <v>2300</v>
       </c>
       <c r="C6">
-        <v>550</v>
+        <v>300.0000000000003</v>
       </c>
       <c r="D6">
         <v>3600</v>
@@ -539,7 +542,7 @@
         <v>2200</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>500.0000000000002</v>
       </c>
       <c r="D7">
         <v>3200</v>
@@ -553,7 +556,7 @@
         <v>2450</v>
       </c>
       <c r="C8">
-        <v>1314.506172839506</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>3550</v>
@@ -567,7 +570,7 @@
         <v>2770</v>
       </c>
       <c r="C9">
-        <v>1514.506172839506</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>3820</v>
@@ -581,7 +584,7 @@
         <v>2750</v>
       </c>
       <c r="C10">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>3700</v>
@@ -592,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2800</v>
+        <v>2800.000000000001</v>
       </c>
       <c r="C11">
-        <v>350</v>
+        <v>850.0000000000002</v>
       </c>
       <c r="D11">
         <v>3650</v>
@@ -642,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4100</v>
+        <v>1100</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -676,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>933.3333333333334</v>
+        <v>1600</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -690,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2100</v>
+        <v>2100.000000000001</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -710,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>450</v>
+        <v>2598.148148148149</v>
       </c>
       <c r="E6">
         <v>600</v>
@@ -724,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2300</v>
+        <v>2300.000000000001</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>750</v>
+        <v>4148.148148148149</v>
       </c>
       <c r="E8">
         <v>1150</v>
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>550</v>
+        <v>300.0000000000003</v>
       </c>
       <c r="E10">
         <v>1200</v>
@@ -812,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>500.0000000000002</v>
       </c>
       <c r="E12">
         <v>900</v>
@@ -846,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1314.506172839506</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -880,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1514.506172839506</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>950</v>
@@ -914,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>850</v>
@@ -948,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>350</v>
+        <v>850.0000000000002</v>
       </c>
       <c r="E20">
         <v>750</v>
@@ -962,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2800</v>
+        <v>2800.000000000001</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1301,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2100</v>
+        <v>2100.000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1361,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2300</v>
+        <v>2300.000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1781,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2800</v>
+        <v>2800.000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1811,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1842,30 +1845,30 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>333.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1873,33 +1876,33 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-277.7777777777778</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-555.5555555555555</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1907,33 +1910,33 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1000.000000000001</v>
       </c>
       <c r="D6">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-833.3333333333334</v>
+        <v>900.0000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>898.1481481481477</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-1111.111111111111</v>
+        <v>808.3333333333328</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1941,33 +1944,33 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>214.5061728395063</v>
+        <v>1500.000000000001</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>193.0555555555556</v>
+        <v>1350.000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>464.5061728395062</v>
+        <v>1398.148148148148</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>418.0555555555556</v>
+        <v>1258.333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1975,24 +1978,24 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E10">
-        <v>-277.7777777777778</v>
+        <v>-555.5555555555555</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2002,6 +2005,176 @@
       </c>
       <c r="E11">
         <v>-555.5555555555555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>-1111.111111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>740.0000000000005</v>
+      </c>
+      <c r="E14">
+        <v>-822.2222222222229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>359.9999999999995</v>
+      </c>
+      <c r="E15">
+        <v>-399.9999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>190.0000000000007</v>
+      </c>
+      <c r="E16">
+        <v>-211.1111111111119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>859.9999999999994</v>
+      </c>
+      <c r="E17">
+        <v>-955.555555555555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>950.0000000000002</v>
+      </c>
+      <c r="E19">
+        <v>-1055.555555555556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -40,6 +40,9 @@
     <t>angle(degs)</t>
   </si>
   <si>
+    <t>LMP</t>
+  </si>
+  <si>
     <t>busname</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
   </si>
   <si>
     <t>D9</t>
-  </si>
-  <si>
-    <t>baseMVA</t>
   </si>
   <si>
     <t>PGLB(MW)</t>
@@ -720,7 +720,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2850.000000000001</v>
+        <v>2850.000000000002</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>2850</v>
       </c>
       <c r="D2">
-        <v>58448.63879999714</v>
+        <v>58448.63880000008</v>
       </c>
     </row>
   </sheetData>
@@ -739,210 +739,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-6.546974283596734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-6.546974283596725</v>
+      </c>
+      <c r="C2">
+        <v>43.66149999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-6.633647477120217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-6.633647477120229</v>
+      </c>
+      <c r="C3">
+        <v>43.66149999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-6.007638460620418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-6.007638460620466</v>
+      </c>
+      <c r="C4">
+        <v>43.66149999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-9.763266199878005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>-9.763266199878029</v>
+      </c>
+      <c r="C5">
+        <v>43.66149999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>-9.915396455741135</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>43.6615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-12.65895187902035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-12.65895187902025</v>
+      </c>
+      <c r="C7">
+        <v>43.6615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-11.36507205570124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-11.36507205570121</v>
+      </c>
+      <c r="C8">
+        <v>43.6615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-13.75728544193145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-13.75728544193149</v>
+      </c>
+      <c r="C9">
+        <v>43.6615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7.927998027167287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-7.927998027167315</v>
+      </c>
+      <c r="C10">
+        <v>43.66149999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>-9.843253663157657</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>43.6615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-2.534680945996522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-2.534680945996532</v>
+      </c>
+      <c r="C12">
+        <v>43.66149999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.815636946641415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-1.815636946641428</v>
+      </c>
+      <c r="C13">
+        <v>43.6615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>43.66150000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.567721704897455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1.567721704897459</v>
+      </c>
+      <c r="C15">
+        <v>43.66149999999988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10.53599988426593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>10.53599988426595</v>
+      </c>
+      <c r="C16">
+        <v>43.6614999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.70939120066943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>9.709391200669435</v>
+      </c>
+      <c r="C17">
+        <v>43.6614999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.47267467762951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>14.47267467762954</v>
+      </c>
+      <c r="C18">
+        <v>43.6614999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15.95815432681403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>15.95815432681402</v>
+      </c>
+      <c r="C19">
+        <v>43.6614999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.464147121192291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>8.464147121192303</v>
+      </c>
+      <c r="C20">
+        <v>43.66149999999985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9.45016119925886</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>9.450161199258886</v>
+      </c>
+      <c r="C21">
+        <v>43.66149999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16.79692759704508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>16.79692759704509</v>
+      </c>
+      <c r="C22">
+        <v>43.6614999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>22.97588660103365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>22.97588660103361</v>
+      </c>
+      <c r="C23">
+        <v>43.6614999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10.78004391601134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>10.78004391601133</v>
+      </c>
+      <c r="C24">
+        <v>43.66149999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4.213357541853565</v>
+        <v>4.213357541853539</v>
+      </c>
+      <c r="C25">
+        <v>43.6614999999999</v>
       </c>
     </row>
   </sheetData>
@@ -963,18 +1038,18 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -988,7 +1063,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1002,7 +1077,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -1016,7 +1091,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -1030,7 +1105,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1044,13 +1119,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
+      <c r="C7">
+        <v>100</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1058,7 +1133,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -1072,7 +1147,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -1086,7 +1161,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1100,7 +1175,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -1114,7 +1189,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1128,7 +1203,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1142,7 +1217,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1156,7 +1231,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1170,7 +1245,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -1184,7 +1259,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1198,7 +1273,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -1228,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
@@ -1271,10 +1346,10 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1288,10 +1363,10 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1505,8 +1580,8 @@
       <c r="B17">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
+      <c r="C17">
+        <v>100</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -1522,8 +1597,8 @@
       <c r="B18">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
+      <c r="C18">
+        <v>100</v>
       </c>
       <c r="E18">
         <v>400</v>
@@ -1798,10 +1873,10 @@
         <v>25</v>
       </c>
       <c r="E34">
+        <v>68</v>
+      </c>
+      <c r="F34">
         <v>100</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
@@ -1878,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>10.8829683467872</v>
+        <v>10.88296834678687</v>
       </c>
       <c r="E2">
         <v>175</v>
@@ -1895,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>-4.45700089246652</v>
+        <v>-4.457000892466379</v>
       </c>
       <c r="E3">
         <v>175</v>
@@ -1912,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>69.5740325456794</v>
+        <v>69.57403254567949</v>
       </c>
       <c r="E4">
         <v>175</v>
@@ -1929,7 +2004,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>43.1114057175872</v>
+        <v>43.11140571758737</v>
       </c>
       <c r="E5">
         <v>175</v>
@@ -1946,7 +2021,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>54.7715626292002</v>
+        <v>54.77156262919949</v>
       </c>
       <c r="E6">
         <v>175</v>
@@ -1963,7 +2038,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>28.1652077801795</v>
+        <v>28.16520778017954</v>
       </c>
       <c r="E7">
         <v>175</v>
@@ -1980,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>-30.8885942824129</v>
+        <v>-30.88859428241262</v>
       </c>
       <c r="E8">
         <v>175</v>
@@ -1997,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>-1.42596745432064</v>
+        <v>-1.425967454320509</v>
       </c>
       <c r="E9">
         <v>175</v>
@@ -2014,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>-81.2284373707998</v>
+        <v>-81.22843737080052</v>
       </c>
       <c r="E10">
         <v>175</v>
@@ -2031,7 +2106,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>68.00000000000111</v>
+        <v>68.00000000000193</v>
       </c>
       <c r="E11">
         <v>175</v>
@@ -2048,7 +2123,7 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>-61.6234151621463</v>
+        <v>-61.62341516214605</v>
       </c>
       <c r="E12">
         <v>175</v>
@@ -2065,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>-41.3765848378521</v>
+        <v>-41.37658483785201</v>
       </c>
       <c r="E13">
         <v>175</v>
@@ -2082,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>-92.9380840235377</v>
+        <v>-92.93808402353794</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2099,7 +2174,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>-171.292903111587</v>
+        <v>-171.2929031115876</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2116,7 +2191,7 @@
         <v>13</v>
       </c>
       <c r="D16">
-        <v>-66.57319903308681</v>
+        <v>-66.57319903308722</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2150,7 +2225,7 @@
         <v>23</v>
       </c>
       <c r="D18">
-        <v>-217.511283056625</v>
+        <v>-217.5112830566251</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2167,7 +2242,7 @@
         <v>16</v>
       </c>
       <c r="D19">
-        <v>-365.292903111587</v>
+        <v>-365.2929031115876</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2184,7 +2259,7 @@
         <v>16</v>
       </c>
       <c r="D20">
-        <v>83.3933130308389</v>
+        <v>83.39331303083917</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2201,7 +2276,7 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>-223.007760851743</v>
+        <v>-223.0077608517426</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2218,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>-223.007760851743</v>
+        <v>-223.0077608517426</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2235,7 +2310,7 @@
         <v>24</v>
       </c>
       <c r="D23">
-        <v>212.622208672646</v>
+        <v>212.6222086726459</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2252,7 +2327,7 @@
         <v>17</v>
       </c>
       <c r="D24">
-        <v>-320.984478296515</v>
+        <v>-320.9844782965147</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -2269,7 +2344,7 @@
         <v>19</v>
       </c>
       <c r="D25">
-        <v>94.0848882157662</v>
+        <v>94.08488821576628</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -2286,7 +2361,7 @@
         <v>18</v>
       </c>
       <c r="D26">
-        <v>-180.045214233608</v>
+        <v>-180.0452142336079</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2303,7 +2378,7 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>-140.939264062907</v>
+        <v>-140.9392640629068</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -2320,7 +2395,7 @@
         <v>21</v>
       </c>
       <c r="D28">
-        <v>-56.5226071168039</v>
+        <v>-56.52260711680377</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -2337,7 +2412,7 @@
         <v>21</v>
       </c>
       <c r="D29">
-        <v>-56.5226071168039</v>
+        <v>-56.52260711680412</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -2354,7 +2429,7 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <v>-43.4575558921167</v>
+        <v>-43.45755589211686</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -2371,7 +2446,7 @@
         <v>20</v>
       </c>
       <c r="D31">
-        <v>-43.4575558921167</v>
+        <v>-43.45755589211686</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -2388,7 +2463,7 @@
         <v>23</v>
       </c>
       <c r="D32">
-        <v>-107.457555892118</v>
+        <v>-107.4575558921169</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -2405,7 +2480,7 @@
         <v>23</v>
       </c>
       <c r="D33">
-        <v>-107.457555892118</v>
+        <v>-107.4575558921169</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -2422,7 +2497,7 @@
         <v>22</v>
       </c>
       <c r="D34">
-        <v>-159.060735937094</v>
+        <v>-159.0607359370932</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -2469,7 +2544,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-212.622208672646</v>
+        <v>-212.6222086726459</v>
       </c>
       <c r="E2">
         <v>400</v>
@@ -2486,7 +2561,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>-112.194446567914</v>
+        <v>-112.1944465679147</v>
       </c>
       <c r="E3">
         <v>400</v>
@@ -2520,7 +2595,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>-152.036540567211</v>
+        <v>-152.0365405672109</v>
       </c>
       <c r="E5">
         <v>400</v>
@@ -2537,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>-166.994449095762</v>
+        <v>-166.9944490957622</v>
       </c>
       <c r="E6">
         <v>400</v>
